--- a/data/trans_dic/P25A$molestias-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$molestias-Edad-trans_dic.xlsx
@@ -707,26 +707,26 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.2543845690306547</v>
+        <v>0.2699264293551266</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.3593124396092515</v>
+        <v>0.3791368421516484</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2125683231320972</v>
+        <v>0.2138316296567105</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2505356984119979</v>
+        <v>0.3037794788922502</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2159144656992505</v>
+        <v>0.2007745796544261</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.169870880263251</v>
+        <v>0.1829253576536774</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1966820383083431</v>
+        <v>0.2368455703564954</v>
       </c>
     </row>
     <row r="7">
@@ -776,31 +776,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0458931971663086</v>
+        <v>0.04442478904359878</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05142509634733467</v>
+        <v>0.04186829048485954</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04513296171303514</v>
+        <v>0.04428387772378396</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01178680624021867</v>
+        <v>0.01167186524408187</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01542088164743557</v>
+        <v>0.01556422391574893</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06261167714152099</v>
+        <v>0.06145823584263971</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03846850306048626</v>
+        <v>0.03757280735185688</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01747230223825005</v>
+        <v>0.01973683992292042</v>
       </c>
     </row>
     <row r="9">
@@ -811,31 +811,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2392066769207196</v>
+        <v>0.2432867278663521</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2142946771342938</v>
+        <v>0.214661325603469</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1833787740047111</v>
+        <v>0.2044035267483004</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1905486942529387</v>
+        <v>0.1962468015789615</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1091940497499856</v>
+        <v>0.1085201203412041</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.124605512323369</v>
+        <v>0.1284706042962072</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1882368272070266</v>
+        <v>0.1776085339449126</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1324068335967956</v>
+        <v>0.129545044706798</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1149051925420235</v>
+        <v>0.1189572817050025</v>
       </c>
     </row>
     <row r="10">
@@ -885,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06663851575423468</v>
+        <v>0.06688922959652228</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0333354507326196</v>
+        <v>0.03343165539609602</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09449144138213002</v>
+        <v>0.0846776190396003</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1095826515474606</v>
+        <v>0.1165402434293176</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0391306045104509</v>
+        <v>0.03781919535997936</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1115289770976937</v>
+        <v>0.1135253192658424</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1062536906186909</v>
+        <v>0.1068445672765998</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04592303719329603</v>
+        <v>0.04490745731492553</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1209965851345109</v>
+        <v>0.1199263995558839</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2095974765263209</v>
+        <v>0.2139305322133593</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1286988809691227</v>
+        <v>0.1306250331337521</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2743633570799012</v>
+        <v>0.2585942444016609</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.303322350343334</v>
+        <v>0.317633520831398</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1470347877220429</v>
+        <v>0.14070956900892</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2829945273917187</v>
+        <v>0.2793732942784332</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2201037558764368</v>
+        <v>0.221953746679986</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1176868746883534</v>
+        <v>0.1118900141761963</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2464674648334756</v>
+        <v>0.2433714285673019</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1365839493204283</v>
+        <v>0.1488930187808841</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03790482484316494</v>
+        <v>0.03916921137360455</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1239306786450379</v>
+        <v>0.1310305081170648</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0682652480941103</v>
+        <v>0.08202956178056717</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03440018330910954</v>
+        <v>0.0347049367833053</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06086966946223547</v>
+        <v>0.05666217357244839</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1415732025210723</v>
+        <v>0.1419127859584316</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04928963564589089</v>
+        <v>0.04672663762687803</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1095248908431872</v>
+        <v>0.1090715780054953</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2910728313524953</v>
+        <v>0.2969685713500361</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1189539368982763</v>
+        <v>0.1266305336984177</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2922386295358539</v>
+        <v>0.2843993567561458</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2545920586106752</v>
+        <v>0.2693833983681247</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1573208779030439</v>
+        <v>0.1564205276387697</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.200743722989508</v>
+        <v>0.1980111731880611</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2588933527915928</v>
+        <v>0.2622961773767695</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1205300698833768</v>
+        <v>0.1130463273817661</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2200913472524703</v>
+        <v>0.2196671953919399</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.128385752044915</v>
+        <v>0.1239162490182759</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06725810555829925</v>
+        <v>0.06386175078014543</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07935482036088223</v>
+        <v>0.07841312085500338</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1139105090696815</v>
+        <v>0.1121900479911434</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08383814117953065</v>
+        <v>0.0834408727082087</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09201201098618532</v>
+        <v>0.09252688125387627</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1412024782573779</v>
+        <v>0.1426687150979494</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08571468519265647</v>
+        <v>0.08593156219541699</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1001788750316739</v>
+        <v>0.1019694271222066</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2620479961527101</v>
+        <v>0.2565036560442423</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1919508985441258</v>
+        <v>0.1817968971461671</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2139739909548409</v>
+        <v>0.2123510457550994</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5337613559055708</v>
+        <v>0.549491678441231</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3186908088448923</v>
+        <v>0.3226609310361861</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3135161928532196</v>
+        <v>0.3159326653933552</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2716562279146263</v>
+        <v>0.2711891048841966</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1909390372602023</v>
+        <v>0.1951024705220739</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2102689361804289</v>
+        <v>0.2156845258632092</v>
       </c>
     </row>
     <row r="19">
@@ -1212,29 +1212,29 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1530845807398471</v>
+        <v>0.1499101770635902</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1036147005936346</v>
+        <v>0.1007964804667651</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1104323398872808</v>
+        <v>0.1145254692938165</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03515833906169252</v>
+        <v>0.03607092059463617</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.139078634444267</v>
+        <v>0.1372738441178579</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1066403850899682</v>
+        <v>0.1019720378064389</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1099363207459324</v>
+        <v>0.1058567015897879</v>
       </c>
     </row>
     <row r="21">
@@ -1245,29 +1245,29 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2904002818630491</v>
+        <v>0.2951352292020302</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2169520803058313</v>
+        <v>0.2139553983255696</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.242587043776767</v>
+        <v>0.2409551761704406</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.5545740736063244</v>
+        <v>0.5665211573963861</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2857425647779422</v>
+        <v>0.3028924048852016</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2680300850172138</v>
+        <v>0.2672338922738501</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2264996991450703</v>
+        <v>0.2190111351767321</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2299477182804816</v>
+        <v>0.2266168605147401</v>
       </c>
     </row>
     <row r="22">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1557406130379951</v>
+        <v>0.1537331882266005</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0630484746964465</v>
+        <v>0.0671066897693597</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1319898748658255</v>
+        <v>0.1298366208559045</v>
       </c>
       <c r="F23" s="5" t="inlineStr"/>
       <c r="G23" s="5" t="n">
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.137405104300523</v>
+        <v>0.1337204627551978</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06550620282770798</v>
+        <v>0.06757170579307731</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1387500176175463</v>
+        <v>0.1347017263598296</v>
       </c>
     </row>
     <row r="24">
@@ -1350,29 +1350,29 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3080601645177223</v>
+        <v>0.3160830029368804</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1764404094234331</v>
+        <v>0.1968800613216843</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.264239954747503</v>
+        <v>0.2629115257989522</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="n">
-        <v>0.6634225644301261</v>
+        <v>0.6648033346359457</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.284985914904642</v>
+        <v>0.2854325714717724</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1932881786725168</v>
+        <v>0.1886500944006029</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2681301400364419</v>
+        <v>0.273464605444546</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.160481310139349</v>
+        <v>0.1565875036098018</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.08356989102812284</v>
+        <v>0.08554512908171695</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.127683014659122</v>
+        <v>0.1281642072574909</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1059772385465141</v>
+        <v>0.106804958988496</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05984457403281686</v>
+        <v>0.06258487839055131</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1011927327805295</v>
+        <v>0.09898101775284218</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1523758334189459</v>
+        <v>0.1533054900659898</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.08404057428747684</v>
+        <v>0.08204524375136643</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1279855811603457</v>
+        <v>0.127196397960105</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2205235608698266</v>
+        <v>0.2178246520846337</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1300102799200624</v>
+        <v>0.1314242065405452</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.186582573894296</v>
+        <v>0.1902844161596026</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1956110983325092</v>
+        <v>0.189153360898776</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1218369232373616</v>
+        <v>0.1289960918323708</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1801455812094535</v>
+        <v>0.1817883443133611</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2063795779975149</v>
+        <v>0.2015938963015177</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1183928959825496</v>
+        <v>0.1192849178001658</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.175590064443498</v>
+        <v>0.1731754547961596</v>
       </c>
     </row>
     <row r="28">
@@ -1745,26 +1745,26 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4270</v>
+        <v>4531</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>5549</v>
+        <v>5855</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4087</v>
+        <v>4112</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>4134</v>
+        <v>5012</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5772</v>
+        <v>5367</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6118</v>
+        <v>6588</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5103</v>
+        <v>6145</v>
       </c>
     </row>
     <row r="8">
@@ -1849,31 +1849,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1811</v>
+        <v>1753</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3740</v>
+        <v>3045</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3162</v>
+        <v>3103</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6857</v>
+        <v>6731</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5986</v>
+        <v>5846</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1862</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="11">
@@ -1884,31 +1884,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9438</v>
+        <v>9599</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15587</v>
+        <v>15613</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8911</v>
+        <v>9933</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13351</v>
+        <v>13750</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9048</v>
+        <v>8992</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7223</v>
+        <v>7447</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>20616</v>
+        <v>19452</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>20602</v>
+        <v>20157</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12245</v>
+        <v>12676</v>
       </c>
     </row>
     <row r="12">
@@ -1993,31 +1993,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5661</v>
+        <v>5682</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3746</v>
+        <v>3756</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7023</v>
+        <v>6293</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7261</v>
+        <v>7722</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4856</v>
+        <v>4693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9807</v>
+        <v>9983</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>16067</v>
+        <v>16157</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10859</v>
+        <v>10619</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>19632</v>
+        <v>19459</v>
       </c>
     </row>
     <row r="15">
@@ -2028,31 +2028,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17806</v>
+        <v>18174</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14461</v>
+        <v>14677</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20391</v>
+        <v>19219</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>20099</v>
+        <v>21047</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18246</v>
+        <v>17461</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>24885</v>
+        <v>24567</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>33283</v>
+        <v>33563</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>27828</v>
+        <v>26457</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>39991</v>
+        <v>39488</v>
       </c>
     </row>
     <row r="16">
@@ -2137,31 +2137,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17148</v>
+        <v>18694</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6441</v>
+        <v>6656</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13408</v>
+        <v>14176</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4010</v>
+        <v>4819</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3151</v>
+        <v>3179</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5370</v>
+        <v>4999</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>26092</v>
+        <v>26154</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>12890</v>
+        <v>12220</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>21513</v>
+        <v>21424</v>
       </c>
     </row>
     <row r="19">
@@ -2172,31 +2172,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>36544</v>
+        <v>37284</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20214</v>
+        <v>21519</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>31617</v>
+        <v>30769</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>14957</v>
+        <v>15825</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14409</v>
+        <v>14326</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>17711</v>
+        <v>17470</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>47714</v>
+        <v>48341</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>31521</v>
+        <v>29564</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>43230</v>
+        <v>43146</v>
       </c>
     </row>
     <row r="20">
@@ -2281,31 +2281,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>16449</v>
+        <v>15877</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9432</v>
+        <v>8956</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10554</v>
+        <v>10429</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1986</v>
+        <v>1956</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4339</v>
+        <v>4319</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5237</v>
+        <v>5267</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>20554</v>
+        <v>20767</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>16457</v>
+        <v>16499</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>19025</v>
+        <v>19366</v>
       </c>
     </row>
     <row r="23">
@@ -2316,31 +2316,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>33575</v>
+        <v>32864</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26919</v>
+        <v>25495</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>28458</v>
+        <v>28242</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>9308</v>
+        <v>9583</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>16495</v>
+        <v>16701</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>17845</v>
+        <v>17983</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>39543</v>
+        <v>39475</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>36660</v>
+        <v>37460</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>39933</v>
+        <v>40962</v>
       </c>
     </row>
     <row r="24">
@@ -2425,29 +2425,29 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>18661</v>
+        <v>18274</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>16842</v>
+        <v>16383</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>13608</v>
+        <v>14112</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>906</v>
+        <v>929</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>18837</v>
+        <v>18593</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>18466</v>
+        <v>17658</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>16379</v>
+        <v>15771</v>
       </c>
     </row>
     <row r="27">
@@ -2458,29 +2458,29 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>35400</v>
+        <v>35977</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>35263</v>
+        <v>34776</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>29892</v>
+        <v>29691</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>5891</v>
+        <v>6018</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7362</v>
+        <v>7803</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>36303</v>
+        <v>36195</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>39221</v>
+        <v>37925</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>34259</v>
+        <v>33763</v>
       </c>
     </row>
     <row r="28">
@@ -2565,13 +2565,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>17645</v>
+        <v>17418</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>8920</v>
+        <v>9494</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>14351</v>
+        <v>14117</v>
       </c>
       <c r="F30" s="6" t="inlineStr"/>
       <c r="G30" s="6" t="n">
@@ -2581,13 +2581,13 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>16837</v>
+        <v>16385</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>9688</v>
+        <v>9993</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>15432</v>
+        <v>14982</v>
       </c>
     </row>
     <row r="31">
@@ -2598,29 +2598,29 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>34903</v>
+        <v>35812</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>24963</v>
+        <v>27854</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>28730</v>
+        <v>28585</v>
       </c>
       <c r="F31" s="6" t="inlineStr"/>
       <c r="G31" s="6" t="n">
-        <v>4251</v>
+        <v>4260</v>
       </c>
       <c r="H31" s="6" t="n">
         <v>2495</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>34920</v>
+        <v>34975</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>28585</v>
+        <v>27899</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>29822</v>
+        <v>30415</v>
       </c>
     </row>
     <row r="32">
@@ -2705,31 +2705,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>100231</v>
+        <v>97800</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>68199</v>
+        <v>69811</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>77311</v>
+        <v>77603</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>26572</v>
+        <v>26780</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>23134</v>
+        <v>24193</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>33981</v>
+        <v>33239</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>133375</v>
+        <v>134189</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>101070</v>
+        <v>98671</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>120473</v>
+        <v>119730</v>
       </c>
     </row>
     <row r="35">
@@ -2740,31 +2740,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>137732</v>
+        <v>136046</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>106098</v>
+        <v>107252</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>112975</v>
+        <v>115216</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>49047</v>
+        <v>47427</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>47098</v>
+        <v>49865</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>60495</v>
+        <v>61046</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>180645</v>
+        <v>176456</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>142384</v>
+        <v>143456</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>165284</v>
+        <v>163011</v>
       </c>
     </row>
     <row r="36">
